--- a/va_facility_data_2025-02-20/Sierra Foothills VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Sierra%20Foothills%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Sierra Foothills VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Sierra%20Foothills%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R4391fae76c3a491eb5cb853af799b47c"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R6dda38a045b74a3abb3b0f1319c86042"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R511f9b0528de4ca7a1933487064c6ef3"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R0d3210a98e5c4ce1a8dd296af28af92a"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R525dd8bfd03f4b919a5105265fc19741"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R0f9a98c231f9484884501be39302d5fe"/>
   </x:sheets>
 </x:workbook>
 </file>
